--- a/Model Enhancement.xlsx
+++ b/Model Enhancement.xlsx
@@ -290,6 +290,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,7 +616,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
